--- a/R_project/reference/korea_population.xlsx
+++ b/R_project/reference/korea_population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work123\R_project\reference\통계청\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rstudy\work123\R_project\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9333AC6D-DACA-4841-BF50-BBA0FC9F9593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB621E35-3930-4F8A-A582-E04AD6EC23B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8310" windowHeight="7935" xr2:uid="{277C7928-E9C8-45B3-A15C-66169364B657}"/>
+    <workbookView xWindow="6000" yWindow="3180" windowWidth="18000" windowHeight="9360" xr2:uid="{277C7928-E9C8-45B3-A15C-66169364B657}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,62 +27,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>서울특별시</t>
-  </si>
-  <si>
-    <t>부산광역시</t>
-  </si>
-  <si>
-    <t>대구광역시</t>
-  </si>
-  <si>
-    <t>인천광역시</t>
-  </si>
-  <si>
-    <t>광주광역시</t>
-  </si>
-  <si>
-    <t>대전광역시</t>
-  </si>
-  <si>
-    <t>울산광역시</t>
-  </si>
-  <si>
-    <t>세종특별자치시</t>
-  </si>
-  <si>
-    <t>경기도</t>
-  </si>
-  <si>
-    <t>강원도</t>
-  </si>
-  <si>
-    <t>충청북도</t>
-  </si>
-  <si>
-    <t>충청남도</t>
-  </si>
-  <si>
-    <t>전라북도</t>
-  </si>
-  <si>
-    <t>전라남도</t>
-  </si>
-  <si>
-    <t>경상북도</t>
-  </si>
-  <si>
-    <t>경상남도</t>
-  </si>
-  <si>
-    <t>제주특별자치도</t>
-  </si>
-  <si>
     <t>인구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,6 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,12 +182,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -487,7 +510,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,145 +520,145 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
         <v>9732577</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
         <v>3416721</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
         <v>2441581</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
         <v>2957249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
         <v>1458915</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
         <v>1476955</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
         <v>1148922</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
         <v>338647</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
         <v>13228177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
         <v>1541399</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
         <v>1599651</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
         <v>2124302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
         <v>1820799</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
         <v>1865588</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
         <v>2665775</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
         <v>3363274</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
         <v>670895</v>
       </c>
     </row>
